--- a/testdata/דולינה_גרופ_2025-10-14.xlsx
+++ b/testdata/דולינה_גרופ_2025-10-14.xlsx
@@ -16,94 +16,96 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t>שם ספק</t>
-  </si>
-  <si>
-    <t>ח.פ ספק</t>
-  </si>
-  <si>
-    <t>מספר רישיון ספק</t>
-  </si>
-  <si>
-    <t>תאריך אספקה</t>
-  </si>
-  <si>
-    <t>מספר רישיון רכב</t>
-  </si>
-  <si>
-    <t>שם נהג</t>
+    <t>שם הספק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ח"פ ספק </t>
+  </si>
+  <si>
+    <t>מספר משרד הבריאות</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>מס.רכב</t>
+  </si>
+  <si>
+    <t>שם הנהג</t>
   </si>
   <si>
     <t>טלפון נהג</t>
   </si>
   <si>
-    <t>שם לקוח</t>
-  </si>
-  <si>
-    <t>סוג לקוח</t>
-  </si>
-  <si>
-    <t>קוד ישוב</t>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>סוג לקוח (קמעונאי,מפעל/מחסן)</t>
+  </si>
+  <si>
+    <t>קוד עיר</t>
   </si>
   <si>
     <t>כתובת</t>
   </si>
   <si>
-    <t>ח.פ לקוח</t>
-  </si>
-  <si>
-    <t>מספר רישיון לקוח</t>
-  </si>
-  <si>
-    <t>מספר הזמנה</t>
-  </si>
-  <si>
-    <t>בשר בקר טרי</t>
-  </si>
-  <si>
-    <t>בשר בקר קפוא</t>
-  </si>
-  <si>
-    <t>בשר עוף טרי</t>
-  </si>
-  <si>
-    <t>בשר עוף קפוא</t>
-  </si>
-  <si>
-    <t>בשר כבש טרי</t>
-  </si>
-  <si>
-    <t>בשר כבש קפוא</t>
-  </si>
-  <si>
-    <t>דגים טריים</t>
-  </si>
-  <si>
-    <t>דגים קפואים</t>
-  </si>
-  <si>
-    <t>משקל כולל</t>
-  </si>
-  <si>
-    <t>ביצים</t>
-  </si>
-  <si>
-    <t>חלב</t>
-  </si>
-  <si>
-    <t>אריזות</t>
-  </si>
-  <si>
-    <t>משקל נטו</t>
-  </si>
-  <si>
-    <t>מספר משלוחים</t>
-  </si>
-  <si>
-    <t>הערות</t>
-  </si>
-  <si>
-    <t>סטטוס</t>
+    <t>ח"פ לקוח 
+או מספר אישור משרד הבריאות במקרים בהם המשלוח הוא למפעל מאושר</t>
+  </si>
+  <si>
+    <t>מספר סניף הרשת</t>
+  </si>
+  <si>
+    <t>מספר תעודת משלוח</t>
+  </si>
+  <si>
+    <t>בשר בהמות גולמי</t>
+  </si>
+  <si>
+    <t>בשר בהמות מיבוא קפוא</t>
+  </si>
+  <si>
+    <t>בשר בהמות מעובד</t>
+  </si>
+  <si>
+    <t>עוף גולמי (עוף שחוט)</t>
+  </si>
+  <si>
+    <t>עוף מעובד</t>
+  </si>
+  <si>
+    <t>דגים גולמי (מקומי)</t>
+  </si>
+  <si>
+    <t>דגים יבוא</t>
+  </si>
+  <si>
+    <t>דגים מעובדים</t>
+  </si>
+  <si>
+    <t>מוצרים מוכנים לאכילה</t>
+  </si>
+  <si>
+    <t>נוסף א</t>
+  </si>
+  <si>
+    <t>נוסף ב</t>
+  </si>
+  <si>
+    <t>סה"כ קרטונים</t>
+  </si>
+  <si>
+    <t>סה"כ משקל</t>
+  </si>
+  <si>
+    <t>סבב יומי</t>
+  </si>
+  <si>
+    <t>קוד ביטול דיווח משלוח
+(למקרים בהם נדרש לבטל תעודת משלוח שדווחה ולא יצאה מהמפעל לשיווק</t>
+  </si>
+  <si>
+    <t>משווק באמצעות</t>
   </si>
   <si>
     <t>דולינה גרופ בע"מ</t>
@@ -630,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>45944.78786318567</v>
+        <v>45944.8221248004</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
@@ -647,15 +649,9 @@
       <c r="L2">
         <v>303485247</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>230557</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
       <c r="Z2">
         <v>0.17</v>
       </c>
@@ -677,7 +673,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>45944.78786318618</v>
+        <v>45944.82212480129</v>
       </c>
       <c r="H3" t="s">
         <v>36</v>
@@ -694,15 +690,9 @@
       <c r="L3">
         <v>314050766</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>230556</v>
       </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
       <c r="Z3">
         <v>0.37</v>
       </c>
@@ -724,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>45944.7878631864</v>
+        <v>45944.822124801634</v>
       </c>
       <c r="H4" t="s">
         <v>39</v>
@@ -741,15 +731,9 @@
       <c r="L4">
         <v>323319046</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>230545</v>
       </c>
-      <c r="W4">
-        <v>5.5</v>
-      </c>
       <c r="Z4">
         <v>0.92</v>
       </c>
@@ -771,7 +755,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>45944.78786318665</v>
+        <v>45944.822124801954</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -788,15 +772,9 @@
       <c r="L5">
         <v>328912324</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>230548</v>
       </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
       <c r="Z5">
         <v>0.87</v>
       </c>
@@ -818,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1">
-        <v>45944.787863186866</v>
+        <v>45944.82212480222</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -835,15 +813,9 @@
       <c r="L6">
         <v>511946451</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>230554</v>
       </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
       <c r="Z6">
         <v>1.7</v>
       </c>
@@ -865,7 +837,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="1">
-        <v>45944.78786318712</v>
+        <v>45944.82212480263</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
@@ -882,15 +854,9 @@
       <c r="L7">
         <v>512457987</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>230544</v>
       </c>
-      <c r="W7">
-        <v>8</v>
-      </c>
       <c r="Z7">
         <v>1.33</v>
       </c>
@@ -912,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>45944.78786318733</v>
+        <v>45944.822124802886</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -929,15 +895,9 @@
       <c r="L8">
         <v>513238402</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>131414</v>
       </c>
-      <c r="W8">
-        <v>13.1</v>
-      </c>
       <c r="Z8">
         <v>2.25</v>
       </c>
@@ -959,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>45944.78786318761</v>
+        <v>45944.82212480316</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -976,15 +936,9 @@
       <c r="L9">
         <v>513359695</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>230552</v>
       </c>
-      <c r="W9">
-        <v>3.5</v>
-      </c>
       <c r="Z9">
         <v>0.62</v>
       </c>
@@ -1006,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="1">
-        <v>45944.78786318782</v>
+        <v>45944.82212480336</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1023,15 +977,9 @@
       <c r="L10">
         <v>513752089</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>230546</v>
       </c>
-      <c r="W10">
-        <v>2.4</v>
-      </c>
       <c r="Z10">
         <v>0.4</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="1">
-        <v>45944.78786318813</v>
+        <v>45944.822124803606</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -1070,15 +1018,9 @@
       <c r="L11">
         <v>514065523</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>230555</v>
       </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
       <c r="Z11">
         <v>0.37</v>
       </c>
@@ -1100,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="1">
-        <v>45944.78786318834</v>
+        <v>45944.8221248038</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -1117,15 +1059,9 @@
       <c r="L12">
         <v>516081254</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>230553</v>
       </c>
-      <c r="W12">
-        <v>5</v>
-      </c>
       <c r="Z12">
         <v>0.75</v>
       </c>
@@ -1147,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>45944.787863188794</v>
+        <v>45944.822124804</v>
       </c>
       <c r="H13" t="s">
         <v>62</v>
@@ -1164,15 +1100,9 @@
       <c r="L13">
         <v>516394558</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>230549</v>
       </c>
-      <c r="W13">
-        <v>6.6</v>
-      </c>
       <c r="Z13">
         <v>1.17</v>
       </c>
@@ -1194,7 +1124,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="1">
-        <v>45944.78786318904</v>
+        <v>45944.822124804195</v>
       </c>
       <c r="H14" t="s">
         <v>65</v>
@@ -1211,14 +1141,8 @@
       <c r="L14">
         <v>516632627</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>230551</v>
-      </c>
-      <c r="W14">
-        <v>4.5</v>
       </c>
       <c r="Z14">
         <v>0.7</v>

--- a/testdata/דולינה_גרופ_2025-10-14.xlsx
+++ b/testdata/דולינה_גרופ_2025-10-14.xlsx
@@ -1,104 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="7305" tabRatio="334"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$E$1:$E$15</definedName>
+    <definedName localSheetId="0" name="_xlnm.Extract">Sheet1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
+    <t>בשר בהמות גולמי</t>
+  </si>
+  <si>
+    <t>בשר בהמות מיבוא קפוא</t>
+  </si>
+  <si>
+    <t>בשר בהמות מעובד</t>
+  </si>
+  <si>
+    <t>עוף גולמי (עוף שחוט)</t>
+  </si>
+  <si>
+    <t>עוף מעובד</t>
+  </si>
+  <si>
+    <t>דגים גולמי (מקומי)</t>
+  </si>
+  <si>
+    <t>דגים יבוא</t>
+  </si>
+  <si>
+    <t>דגים מעובדים</t>
+  </si>
+  <si>
+    <t>מוצרים מוכנים לאכילה</t>
+  </si>
+  <si>
+    <t>נוסף א</t>
+  </si>
+  <si>
+    <t>נוסף ב</t>
+  </si>
+  <si>
+    <t>סה"כ קרטונים</t>
+  </si>
+  <si>
+    <t>סה"כ משקל</t>
+  </si>
+  <si>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>כתובת</t>
+  </si>
+  <si>
+    <t>מספר תעודת משלוח</t>
+  </si>
+  <si>
+    <t>מס.רכב</t>
+  </si>
+  <si>
+    <t>שם הנהג</t>
+  </si>
+  <si>
+    <t>טלפון נהג</t>
+  </si>
+  <si>
+    <t>סוג לקוח (קמעונאי,מפעל/מחסן)</t>
+  </si>
+  <si>
     <t>שם הספק</t>
   </si>
   <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>מספר סניף הרשת</t>
+  </si>
+  <si>
+    <t>סבב יומי</t>
+  </si>
+  <si>
+    <t>מספר משרד הבריאות</t>
+  </si>
+  <si>
     <t xml:space="preserve">ח"פ ספק </t>
-  </si>
-  <si>
-    <t>מספר משרד הבריאות</t>
-  </si>
-  <si>
-    <t>תאריך</t>
-  </si>
-  <si>
-    <t>מס.רכב</t>
-  </si>
-  <si>
-    <t>שם הנהג</t>
-  </si>
-  <si>
-    <t>טלפון נהג</t>
-  </si>
-  <si>
-    <t>לקוח</t>
-  </si>
-  <si>
-    <t>סוג לקוח (קמעונאי,מפעל/מחסן)</t>
-  </si>
-  <si>
-    <t>קוד עיר</t>
-  </si>
-  <si>
-    <t>כתובת</t>
   </si>
   <si>
     <t>ח"פ לקוח 
 או מספר אישור משרד הבריאות במקרים בהם המשלוח הוא למפעל מאושר</t>
   </si>
   <si>
-    <t>מספר סניף הרשת</t>
-  </si>
-  <si>
-    <t>מספר תעודת משלוח</t>
-  </si>
-  <si>
-    <t>בשר בהמות גולמי</t>
-  </si>
-  <si>
-    <t>בשר בהמות מיבוא קפוא</t>
-  </si>
-  <si>
-    <t>בשר בהמות מעובד</t>
-  </si>
-  <si>
-    <t>עוף גולמי (עוף שחוט)</t>
-  </si>
-  <si>
-    <t>עוף מעובד</t>
-  </si>
-  <si>
-    <t>דגים גולמי (מקומי)</t>
-  </si>
-  <si>
-    <t>דגים יבוא</t>
-  </si>
-  <si>
-    <t>דגים מעובדים</t>
-  </si>
-  <si>
-    <t>מוצרים מוכנים לאכילה</t>
-  </si>
-  <si>
-    <t>נוסף א</t>
-  </si>
-  <si>
-    <t>נוסף ב</t>
-  </si>
-  <si>
-    <t>סה"כ קרטונים</t>
-  </si>
-  <si>
-    <t>סה"כ משקל</t>
-  </si>
-  <si>
-    <t>סבב יומי</t>
+    <t>קוד עיר</t>
   </si>
   <si>
     <t>קוד ביטול דיווח משלוח
@@ -223,23 +232,69 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00\-000\-00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,26 +302,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00F0F0F0"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -276,44 +450,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -346,9 +520,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -387,131 +561,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -522,638 +725,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView rightToLeft="true" tabSelected="true" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="21.85546875"/>
+    <col customWidth="true" max="2" min="2" width="17.140625"/>
+    <col customWidth="true" max="3" min="3" width="12.5703125"/>
+    <col customWidth="true" max="7" min="4" width="14"/>
+    <col customWidth="true" max="8" min="8" width="22.85546875"/>
+    <col customWidth="true" max="9" min="9" width="20.28515625"/>
+    <col customWidth="true" max="10" min="10" width="8.85546875"/>
+    <col customWidth="true" max="11" min="11" width="7.28515625"/>
+    <col customWidth="true" max="12" min="12" width="16.85546875"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" width="14.140625"/>
+    <col customWidth="true" max="19" min="14" width="13.28515625"/>
+    <col customWidth="true" max="20" min="20" width="10.28515625"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" width="7.7109375"/>
+    <col customWidth="true" max="22" min="22" width="8.85546875"/>
+    <col customWidth="true" max="23" min="23" width="13"/>
+    <col customWidth="true" max="24" min="24" width="9.140625"/>
+    <col customWidth="true" max="26" min="25" width="8.85546875"/>
+    <col customWidth="true" max="27" min="27" width="12.140625"/>
+    <col customWidth="true" max="28" min="28" width="8.28515625"/>
+    <col customWidth="true" max="29" min="29" width="22.28515625"/>
+    <col bestFit="true" customWidth="true" max="30" min="30" width="25.5703125"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" s="5" customFormat="true" ht="90">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="P1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="T1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="V1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="W1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>511777856</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
-        <v>45944.8221248004</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="9">
+        <v>45944.83189293716</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>303485247</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>230557</v>
       </c>
-      <c r="Z2">
-        <v>0.17</v>
-      </c>
-      <c r="AA2">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1">
         <v>1</v>
       </c>
-      <c r="AB2">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>511777856</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
-        <v>45944.82212480129</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="9">
+        <v>45944.83189293839</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>314050766</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>230556</v>
       </c>
-      <c r="Z3">
-        <v>0.37</v>
-      </c>
-      <c r="AA3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
         <v>2</v>
       </c>
-      <c r="AB3">
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>511777856</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1">
-        <v>45944.822124801634</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="9">
+        <v>45944.831892939146</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>323319046</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>230545</v>
       </c>
-      <c r="Z4">
-        <v>0.92</v>
-      </c>
-      <c r="AA4">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
         <v>5.5</v>
       </c>
-      <c r="AB4">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>511777856</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
-        <v>45944.822124801954</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" s="9">
+        <v>45944.83189293984</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>328912324</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>230548</v>
       </c>
-      <c r="Z5">
-        <v>0.87</v>
-      </c>
-      <c r="AA5">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="AB5">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>511777856</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1">
-        <v>45944.82212480222</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D6" s="9">
+        <v>45944.831892940485</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>511946451</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>230554</v>
       </c>
-      <c r="Z6">
-        <v>1.7</v>
-      </c>
-      <c r="AA6">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1">
         <v>10</v>
       </c>
-      <c r="AB6">
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>511777856</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1">
-        <v>45944.82212480263</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D7" s="9">
+        <v>45944.83189294111</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>512457987</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>230544</v>
       </c>
-      <c r="Z7">
-        <v>1.33</v>
-      </c>
-      <c r="AA7">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
         <v>8</v>
       </c>
-      <c r="AB7">
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>511777856</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1">
-        <v>45944.822124802886</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D8" s="9">
+        <v>45944.831892941744</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>513238402</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>131414</v>
       </c>
-      <c r="Z8">
-        <v>2.25</v>
-      </c>
-      <c r="AA8">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1">
         <v>13.1</v>
       </c>
-      <c r="AB8">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="AB8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>511777856</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
-        <v>45944.82212480316</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D9" s="9">
+        <v>45944.83189294238</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>513359695</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>230552</v>
       </c>
-      <c r="Z9">
-        <v>0.62</v>
-      </c>
-      <c r="AA9">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1">
         <v>3.5</v>
       </c>
-      <c r="AB9">
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>511777856</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
-        <v>45944.82212480336</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D10" s="9">
+        <v>45944.83189294307</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>513752089</v>
       </c>
-      <c r="N10">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>230546</v>
       </c>
-      <c r="Z10">
-        <v>0.4</v>
-      </c>
-      <c r="AA10">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB10">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AB10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>511777856</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
-        <v>45944.822124803606</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="D11" s="9">
+        <v>45944.83189294404</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>514065523</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>230555</v>
       </c>
-      <c r="Z11">
-        <v>0.37</v>
-      </c>
-      <c r="AA11">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1">
         <v>2</v>
       </c>
-      <c r="AB11">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>511777856</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1">
-        <v>45944.8221248038</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" s="9">
+        <v>45944.83189294473</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>516081254</v>
       </c>
-      <c r="N12">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>230553</v>
       </c>
-      <c r="Z12">
-        <v>0.75</v>
-      </c>
-      <c r="AA12">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1">
         <v>5</v>
       </c>
-      <c r="AB12">
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>511777856</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
-        <v>45944.822124804</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D13" s="9">
+        <v>45944.831892945374</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>516394558</v>
       </c>
-      <c r="N13">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>230549</v>
       </c>
-      <c r="Z13">
-        <v>1.17</v>
-      </c>
-      <c r="AA13">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1">
         <v>6.6</v>
       </c>
-      <c r="AB13">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="AB13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>511777856</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
-        <v>45944.822124804195</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D14" s="9">
+        <v>45944.83189294603</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>516632627</v>
       </c>
-      <c r="N14">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>230551</v>
       </c>
-      <c r="Z14">
-        <v>0.7</v>
-      </c>
-      <c r="AA14">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1">
         <v>4.5</v>
       </c>
-      <c r="AB14">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AB14" s="1">
         <v>1</v>
       </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>